--- a/data/trans_dic/iP30B8_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B8_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 14,83</t>
+          <t>0; 10,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 19,75</t>
+          <t>0,0; 14,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,1; 15,1</t>
+          <t>0,0; 10,26</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>11,72%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,56; 20,99</t>
+          <t>7,03; 14,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,32; 24,75</t>
+          <t>9,35; 19,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,66; 20,79</t>
+          <t>9,1; 15,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>11,78%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>8,74; 17,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,94</t>
+          <t>7,12; 15,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,26</t>
+          <t>8,98; 15,16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>17,04%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,74; 17,73</t>
+          <t>11,56; 20,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 15,85</t>
+          <t>13,32; 24,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,98; 15,16</t>
+          <t>13,66; 20,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B8_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B8_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 27,6</t>
+          <t>4,82; 29,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 14,46</t>
+          <t>5,02; 15,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 20,07</t>
+          <t>6,23; 21,19</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 14,83</t>
+          <t>7,29; 15,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,35; 19,75</t>
+          <t>8,9; 18,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,1; 15,1</t>
+          <t>9,24; 14,93</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,74; 17,73</t>
+          <t>8,51; 17,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 15,85</t>
+          <t>7,37; 15,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,98; 15,16</t>
+          <t>8,76; 15,51</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,56; 20,99</t>
+          <t>10,79; 21,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,32; 24,75</t>
+          <t>14,03; 24,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,66; 20,79</t>
+          <t>13,6; 20,55</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 15,26</t>
+          <t>10,06; 15,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,85; 15,66</t>
+          <t>10,94; 15,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,92; 14,4</t>
+          <t>10,98; 14,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B8_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B8_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -584,19 +584,19 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,94</t>
+          <t>0,0; 16,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,26</t>
+          <t>0,0; 11,29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 29,15</t>
+          <t>4,66; 29,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 15,11</t>
+          <t>5,14; 14,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 21,19</t>
+          <t>6,13; 21,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 15,3</t>
+          <t>6,98; 14,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,9; 18,72</t>
+          <t>9,29; 18,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 14,93</t>
+          <t>9,24; 14,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,51; 17,35</t>
+          <t>8,82; 17,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 15,93</t>
+          <t>7,1; 15,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 15,51</t>
+          <t>8,85; 15,2</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,79; 21,03</t>
+          <t>10,93; 20,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,03; 24,5</t>
+          <t>13,82; 25,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,6; 20,55</t>
+          <t>13,57; 20,8</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,51</t>
+          <t>9,95; 15,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,94; 15,68</t>
+          <t>11,0; 15,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,98; 14,54</t>
+          <t>10,92; 14,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B8_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B8_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>10,86%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>4,95; 13,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,77</t>
+          <t>4,36; 35,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,29</t>
+          <t>6,06; 22,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>12,39%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 29,45</t>
+          <t>10,37; 26,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,14; 14,48</t>
+          <t>7,03; 14,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 21,09</t>
+          <t>9,61; 16,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>10,88%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 14,03</t>
+          <t>5,35; 13,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,29; 18,59</t>
+          <t>8,48; 17,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 14,76</t>
+          <t>7,55; 14,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>17,14%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,82; 17,78</t>
+          <t>13,54; 25,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 15,37</t>
+          <t>11,45; 21,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,85; 15,2</t>
+          <t>13,75; 20,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>12,88%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,93; 20,64</t>
+          <t>10,73; 16,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 25,21</t>
+          <t>10,08; 16,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,57; 20,8</t>
+          <t>10,87; 15,34</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>12,21%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>13,13%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>12,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>9,95; 15,33</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>11,0; 15,78</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>10,92; 14,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
